--- a/ArticleManage/main_working_folder/output_folders/Data 58 Correlation verification of process/Data58_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 58 Correlation verification of process/Data58_all_graphs_excel.xlsx
@@ -5,20 +5,20 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="700-3h" sheetId="1" r:id="rId1"/>
-    <sheet name="700-4h" sheetId="2" r:id="rId4"/>
-    <sheet name="700-6h" sheetId="3" r:id="rId5"/>
-    <sheet name="750-2h" sheetId="4" r:id="rId6"/>
-    <sheet name="750-3h" sheetId="5" r:id="rId7"/>
-    <sheet name="750-4h" sheetId="6" r:id="rId8"/>
-    <sheet name="800-1h" sheetId="7" r:id="rId9"/>
-    <sheet name="800-1h15m" sheetId="8" r:id="rId10"/>
-    <sheet name="800-1h30m" sheetId="9" r:id="rId11"/>
-    <sheet name="800-45m" sheetId="10" r:id="rId12"/>
-    <sheet name="850-30m" sheetId="11" r:id="rId13"/>
-    <sheet name="850-45m" sheetId="12" r:id="rId14"/>
-    <sheet name="850-50m" sheetId="13" r:id="rId15"/>
-    <sheet name="850-55m" sheetId="14" r:id="rId16"/>
+    <sheet name="Figure 5_1 700-3h  0-1-0-200 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 5_1 700-4h  0-1-0-200 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 5_1 700-6h  0-1-0-200 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 5_2 750-2h  0-1-0-300 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 5_2 750-3h  0-1-0-300 " sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 5_2 750-4h  0-1-0-300 " sheetId="6" r:id="rId8"/>
+    <sheet name="Figure 5_3 800-1h  0-1-0-300 " sheetId="7" r:id="rId9"/>
+    <sheet name="Figure 5_3 800-1h15m  0-1-0-300" sheetId="8" r:id="rId10"/>
+    <sheet name="Figure 5_3 800-1h30m  0-1-0-300" sheetId="9" r:id="rId11"/>
+    <sheet name="Figure 5_3 800-45m  0-1-0-300 " sheetId="10" r:id="rId12"/>
+    <sheet name="Figure 5_4 850-30m  0-1-0-350 " sheetId="11" r:id="rId13"/>
+    <sheet name="Figure 5_4 850-45m  0-1-0-350 " sheetId="12" r:id="rId14"/>
+    <sheet name="Figure 5_4 850-50m  0-1-0-350 " sheetId="13" r:id="rId15"/>
+    <sheet name="Figure 5_4 850-55m  0-1-0-350 " sheetId="14" r:id="rId16"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -149,7 +149,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 700-3h</a:t>
+              <a:t>Izoterma adsorpcji probki 700-3h z wykresu 'Figure 5_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -208,12 +208,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'700-3h'!$A$3:$A$50</c:f>
+              <c:f>'Figure 5_1 700-3h  0-1-0-200 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'700-3h'!$B$3:$B$50</c:f>
+              <c:f>'Figure 5_1 700-3h  0-1-0-200 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -226,6 +226,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -295,6 +297,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="200"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -459,7 +463,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 800-45m</a:t>
+              <a:t>Izoterma adsorpcji probki 800-45m z wykresu 'Figure 5_3' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -518,12 +522,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'800-45m'!$A$3:$A$50</c:f>
+              <c:f>'Figure 5_3 800-45m  0-1-0-300 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'800-45m'!$B$3:$B$50</c:f>
+              <c:f>'Figure 5_3 800-45m  0-1-0-300 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -536,6 +540,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -605,6 +611,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="300"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -769,7 +777,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 850-30m</a:t>
+              <a:t>Izoterma adsorpcji probki 850-30m z wykresu 'Figure 5_4' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -828,12 +836,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'850-30m'!$A$3:$A$50</c:f>
+              <c:f>'Figure 5_4 850-30m  0-1-0-350 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'850-30m'!$B$3:$B$50</c:f>
+              <c:f>'Figure 5_4 850-30m  0-1-0-350 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -846,6 +854,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -915,6 +925,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="350"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1079,7 +1091,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 850-45m</a:t>
+              <a:t>Izoterma adsorpcji probki 850-45m z wykresu 'Figure 5_4' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1138,12 +1150,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'850-45m'!$A$3:$A$50</c:f>
+              <c:f>'Figure 5_4 850-45m  0-1-0-350 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'850-45m'!$B$3:$B$50</c:f>
+              <c:f>'Figure 5_4 850-45m  0-1-0-350 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1156,6 +1168,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1225,6 +1239,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="350"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1389,7 +1405,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 850-50m</a:t>
+              <a:t>Izoterma adsorpcji probki 850-50m z wykresu 'Figure 5_4' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1448,12 +1464,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'850-50m'!$A$3:$A$50</c:f>
+              <c:f>'Figure 5_4 850-50m  0-1-0-350 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'850-50m'!$B$3:$B$50</c:f>
+              <c:f>'Figure 5_4 850-50m  0-1-0-350 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1466,6 +1482,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1535,6 +1553,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="350"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1699,7 +1719,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 850-55m</a:t>
+              <a:t>Izoterma adsorpcji probki 850-55m z wykresu 'Figure 5_4' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1758,12 +1778,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'850-55m'!$A$3:$A$50</c:f>
+              <c:f>'Figure 5_4 850-55m  0-1-0-350 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'850-55m'!$B$3:$B$50</c:f>
+              <c:f>'Figure 5_4 850-55m  0-1-0-350 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1776,6 +1796,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1845,6 +1867,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="350"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2009,7 +2033,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 700-4h</a:t>
+              <a:t>Izoterma adsorpcji probki 700-4h z wykresu 'Figure 5_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2068,12 +2092,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'700-4h'!$A$3:$A$50</c:f>
+              <c:f>'Figure 5_1 700-4h  0-1-0-200 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'700-4h'!$B$3:$B$50</c:f>
+              <c:f>'Figure 5_1 700-4h  0-1-0-200 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2086,6 +2110,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2155,6 +2181,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="200"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2319,7 +2347,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 700-6h</a:t>
+              <a:t>Izoterma adsorpcji probki 700-6h z wykresu 'Figure 5_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2378,12 +2406,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'700-6h'!$A$3:$A$50</c:f>
+              <c:f>'Figure 5_1 700-6h  0-1-0-200 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'700-6h'!$B$3:$B$50</c:f>
+              <c:f>'Figure 5_1 700-6h  0-1-0-200 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2396,6 +2424,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2465,6 +2495,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="200"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2629,7 +2661,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 750-2h</a:t>
+              <a:t>Izoterma adsorpcji probki 750-2h z wykresu 'Figure 5_2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2688,12 +2720,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'750-2h'!$A$3:$A$50</c:f>
+              <c:f>'Figure 5_2 750-2h  0-1-0-300 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'750-2h'!$B$3:$B$50</c:f>
+              <c:f>'Figure 5_2 750-2h  0-1-0-300 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2706,6 +2738,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2775,6 +2809,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="300"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2939,7 +2975,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 750-3h</a:t>
+              <a:t>Izoterma adsorpcji probki 750-3h z wykresu 'Figure 5_2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2998,12 +3034,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'750-3h'!$A$3:$A$50</c:f>
+              <c:f>'Figure 5_2 750-3h  0-1-0-300 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'750-3h'!$B$3:$B$50</c:f>
+              <c:f>'Figure 5_2 750-3h  0-1-0-300 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -3016,6 +3052,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -3085,6 +3123,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="300"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3249,7 +3289,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 750-4h</a:t>
+              <a:t>Izoterma adsorpcji probki 750-4h z wykresu 'Figure 5_2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3308,12 +3348,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'750-4h'!$A$3:$A$50</c:f>
+              <c:f>'Figure 5_2 750-4h  0-1-0-300 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'750-4h'!$B$3:$B$50</c:f>
+              <c:f>'Figure 5_2 750-4h  0-1-0-300 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -3326,6 +3366,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -3395,6 +3437,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="300"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3559,7 +3603,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 800-1h</a:t>
+              <a:t>Izoterma adsorpcji probki 800-1h z wykresu 'Figure 5_3' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3618,12 +3662,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'800-1h'!$A$3:$A$50</c:f>
+              <c:f>'Figure 5_3 800-1h  0-1-0-300 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'800-1h'!$B$3:$B$50</c:f>
+              <c:f>'Figure 5_3 800-1h  0-1-0-300 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -3636,6 +3680,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -3705,6 +3751,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="300"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3869,7 +3917,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 800-1h15m</a:t>
+              <a:t>Izoterma adsorpcji probki 800-1h15m z wykresu 'Figure 5_3' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3928,12 +3976,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'800-1h15m'!$A$3:$A$50</c:f>
+              <c:f>'Figure 5_3 800-1h15m  0-1-0-300'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'800-1h15m'!$B$3:$B$50</c:f>
+              <c:f>'Figure 5_3 800-1h15m  0-1-0-300'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -3946,6 +3994,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -4015,6 +4065,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="300"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4179,7 +4231,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 800-1h30m</a:t>
+              <a:t>Izoterma adsorpcji probki 800-1h30m z wykresu 'Figure 5_3' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4238,12 +4290,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'800-1h30m'!$A$3:$A$50</c:f>
+              <c:f>'Figure 5_3 800-1h30m  0-1-0-300'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'800-1h30m'!$B$3:$B$50</c:f>
+              <c:f>'Figure 5_3 800-1h30m  0-1-0-300'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -4256,6 +4308,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -4325,6 +4379,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="300"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 58 Correlation verification of process/Data58_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 58 Correlation verification of process/Data58_all_graphs_excel.xlsx
@@ -5,19 +5,19 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 5_1 700-3h  0-1-0-200 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 5_1 700-6h  0-1-0-200 " sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 5_2 750-2h  0-1-0-300 " sheetId="3" r:id="rId5"/>
-    <sheet name="Figure 5_2 750-3h  0-1-0-300 " sheetId="4" r:id="rId6"/>
-    <sheet name="Figure 5_2 750-4h  0-1-0-300 " sheetId="5" r:id="rId7"/>
-    <sheet name="Figure 5_3 800-1h  0-1-0-300 " sheetId="6" r:id="rId8"/>
-    <sheet name="Figure 5_3 800-1h15m  0-1-0-300" sheetId="7" r:id="rId9"/>
-    <sheet name="Figure 5_3 800-1h30m  0-1-0-300" sheetId="8" r:id="rId10"/>
-    <sheet name="Figure 5_3 800-45m  0-1-0-300 " sheetId="9" r:id="rId11"/>
-    <sheet name="Figure 5_4 850-30m  0-1-0-350 " sheetId="10" r:id="rId12"/>
-    <sheet name="Figure 5_4 850-45m  0-1-0-350 " sheetId="11" r:id="rId13"/>
-    <sheet name="Figure 5_4 850-50m  0-1-0-350 " sheetId="12" r:id="rId14"/>
-    <sheet name="Figure 5_4 850-55m  0-1-0-350 " sheetId="13" r:id="rId15"/>
+    <sheet name="Figure 5_1 700-3h  0&amp;1&amp;0&amp;200 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 5_1 700-6h  0&amp;1&amp;0&amp;200 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 5_2 750-2h  0&amp;1&amp;0&amp;300 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 5_2 750-3h  0&amp;1&amp;0&amp;300 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 5_2 750-4h  0&amp;1&amp;0&amp;300 " sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 5_3 800-1h  0&amp;1&amp;0&amp;300 " sheetId="6" r:id="rId8"/>
+    <sheet name="Figure 5_3 800-1h15m  0&amp;1&amp;0&amp;300" sheetId="7" r:id="rId9"/>
+    <sheet name="Figure 5_3 800-1h30m  0&amp;1&amp;0&amp;300" sheetId="8" r:id="rId10"/>
+    <sheet name="Figure 5_3 800-45m  0&amp;1&amp;0&amp;300 " sheetId="9" r:id="rId11"/>
+    <sheet name="Figure 5_4 850-30m  0&amp;1&amp;0&amp;350 " sheetId="10" r:id="rId12"/>
+    <sheet name="Figure 5_4 850-45m  0&amp;1&amp;0&amp;350 " sheetId="11" r:id="rId13"/>
+    <sheet name="Figure 5_4 850-50m  0&amp;1&amp;0&amp;350 " sheetId="12" r:id="rId14"/>
+    <sheet name="Figure 5_4 850-55m  0&amp;1&amp;0&amp;350 " sheetId="13" r:id="rId15"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -204,12 +204,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 5_1 700-3h  0-1-0-200 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 5_1 700-3h  0&amp;1&amp;0&amp;200 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 5_1 700-3h  0-1-0-200 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 5_1 700-3h  0&amp;1&amp;0&amp;200 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -518,12 +518,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 5_4 850-30m  0-1-0-350 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 5_4 850-30m  0&amp;1&amp;0&amp;350 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 5_4 850-30m  0-1-0-350 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 5_4 850-30m  0&amp;1&amp;0&amp;350 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -832,12 +832,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 5_4 850-45m  0-1-0-350 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 5_4 850-45m  0&amp;1&amp;0&amp;350 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 5_4 850-45m  0-1-0-350 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 5_4 850-45m  0&amp;1&amp;0&amp;350 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1146,12 +1146,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 5_4 850-50m  0-1-0-350 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 5_4 850-50m  0&amp;1&amp;0&amp;350 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 5_4 850-50m  0-1-0-350 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 5_4 850-50m  0&amp;1&amp;0&amp;350 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1460,12 +1460,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 5_4 850-55m  0-1-0-350 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 5_4 850-55m  0&amp;1&amp;0&amp;350 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 5_4 850-55m  0-1-0-350 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 5_4 850-55m  0&amp;1&amp;0&amp;350 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1774,12 +1774,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 5_1 700-6h  0-1-0-200 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 5_1 700-6h  0&amp;1&amp;0&amp;200 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 5_1 700-6h  0-1-0-200 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 5_1 700-6h  0&amp;1&amp;0&amp;200 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2088,12 +2088,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 5_2 750-2h  0-1-0-300 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 5_2 750-2h  0&amp;1&amp;0&amp;300 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 5_2 750-2h  0-1-0-300 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 5_2 750-2h  0&amp;1&amp;0&amp;300 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2402,12 +2402,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 5_2 750-3h  0-1-0-300 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 5_2 750-3h  0&amp;1&amp;0&amp;300 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 5_2 750-3h  0-1-0-300 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 5_2 750-3h  0&amp;1&amp;0&amp;300 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2716,12 +2716,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 5_2 750-4h  0-1-0-300 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 5_2 750-4h  0&amp;1&amp;0&amp;300 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 5_2 750-4h  0-1-0-300 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 5_2 750-4h  0&amp;1&amp;0&amp;300 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -3030,12 +3030,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 5_3 800-1h  0-1-0-300 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 5_3 800-1h  0&amp;1&amp;0&amp;300 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 5_3 800-1h  0-1-0-300 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 5_3 800-1h  0&amp;1&amp;0&amp;300 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -3344,12 +3344,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 5_3 800-1h15m  0-1-0-300'!$A$3:$A$70</c:f>
+              <c:f>'Figure 5_3 800-1h15m  0&amp;1&amp;0&amp;300'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 5_3 800-1h15m  0-1-0-300'!$B$3:$B$70</c:f>
+              <c:f>'Figure 5_3 800-1h15m  0&amp;1&amp;0&amp;300'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -3658,12 +3658,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 5_3 800-1h30m  0-1-0-300'!$A$3:$A$70</c:f>
+              <c:f>'Figure 5_3 800-1h30m  0&amp;1&amp;0&amp;300'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 5_3 800-1h30m  0-1-0-300'!$B$3:$B$70</c:f>
+              <c:f>'Figure 5_3 800-1h30m  0&amp;1&amp;0&amp;300'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -3972,12 +3972,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 5_3 800-45m  0-1-0-300 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 5_3 800-45m  0&amp;1&amp;0&amp;300 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 5_3 800-45m  0-1-0-300 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 5_3 800-45m  0&amp;1&amp;0&amp;300 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
